--- a/script_DNRPA/files/registroInscripcionAutoNacion.xlsx
+++ b/script_DNRPA/files/registroInscripcionAutoNacion.xlsx
@@ -956,7 +956,7 @@
         <v>11316</v>
       </c>
       <c r="C7" t="n">
-        <v>8164</v>
+        <v>8236</v>
       </c>
       <c r="D7" t="n">
         <v>369</v>
@@ -989,7 +989,7 @@
         <v>170</v>
       </c>
       <c r="N7" t="n">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="O7" t="n">
         <v>604</v>
@@ -1016,7 +1016,7 @@
         <v>3514</v>
       </c>
       <c r="W7" t="n">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="X7" t="n">
         <v>1013</v>
@@ -1025,7 +1025,7 @@
         <v>409</v>
       </c>
       <c r="Z7" t="n">
-        <v>40208</v>
+        <v>40301</v>
       </c>
     </row>
     <row r="8">
@@ -1033,79 +1033,79 @@
         <v>45108</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>12730</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>8568</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>4711</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>924</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1075</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1525</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1219</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1264</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>542</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>3958</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1234</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>44324</v>
       </c>
     </row>
     <row r="9">

--- a/script_DNRPA/files/registroInscripcionAutoNacion.xlsx
+++ b/script_DNRPA/files/registroInscripcionAutoNacion.xlsx
@@ -1093,7 +1093,7 @@
         <v>399</v>
       </c>
       <c r="V8" t="n">
-        <v>3958</v>
+        <v>3959</v>
       </c>
       <c r="W8" t="n">
         <v>465</v>
@@ -1105,7 +1105,7 @@
         <v>459</v>
       </c>
       <c r="Z8" t="n">
-        <v>44324</v>
+        <v>44325</v>
       </c>
     </row>
     <row r="9">
